--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1125.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1125.xlsx
@@ -351,13 +351,13 @@
         <v>1.118660654868757</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.124940465354083</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1125.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1125.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.118660654868757</v>
+        <v>1.161853194236755</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.372714042663574</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.392551898956299</v>
       </c>
       <c r="E1">
-        <v>1.124940465354083</v>
+        <v>1.218700766563416</v>
       </c>
     </row>
   </sheetData>
